--- a/database3.xlsx
+++ b/database3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51d220d0e31806c9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC872DD-18F1-449B-9321-BFB8F8E0CD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{703CE924-3B64-4A22-9658-179207A1E7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D8DA036-6BF9-4E97-82D7-60F6923412AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D8DA036-6BF9-4E97-82D7-60F6923412AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="327">
   <si>
     <t>id</t>
   </si>
@@ -1009,6 +1009,12 @@
   </si>
   <si>
     <t>desigation</t>
+  </si>
+  <si>
+    <t>office type</t>
+  </si>
+  <si>
+    <t>headquarter</t>
   </si>
 </sst>
 </file>
@@ -1103,9 +1109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1143,7 +1149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1249,7 +1255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1391,7 +1397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1399,22 +1405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957D6B93-4075-4107-9339-12A486D45FF0}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.33203125" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="30.28515625" style="5"/>
-    <col min="8" max="8" width="30.28515625" style="8"/>
-    <col min="9" max="14" width="30.28515625" style="5"/>
-    <col min="15" max="15" width="45.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="5" customWidth="1"/>
+    <col min="2" max="8" width="30.33203125" style="5"/>
+    <col min="9" max="9" width="30.33203125" style="8"/>
+    <col min="10" max="15" width="30.33203125" style="5"/>
+    <col min="16" max="16" width="45.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1436,32 +1442,35 @@
       <c r="G1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1483,32 +1492,35 @@
       <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>502032</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>9000177700</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1530,32 +1542,35 @@
       <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>500084</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>9848032777</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1577,22 +1592,25 @@
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>502032</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1614,32 +1632,35 @@
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>500081</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>7305048111</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1661,29 +1682,32 @@
       <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>500028</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>9441911789</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1705,32 +1729,35 @@
       <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>500033</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>9866519595</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1752,32 +1779,35 @@
       <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>500008</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>9885155577</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1799,29 +1829,32 @@
       <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>502110</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>8696456789</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1843,72 +1876,77 @@
       <c r="G10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>500034</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>8249671207</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="O10" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="L11" s="7" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="M11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>8880868666</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="L12" s="7" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="M12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>9848538207</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1930,29 +1968,32 @@
       <c r="G13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>500034</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>9177734562</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1974,71 +2015,75 @@
       <c r="G14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>500032</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>7887012083</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="L15" s="7" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="M15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>9949502507</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="L16" s="7" t="s">
+      <c r="I16" s="6"/>
+      <c r="M16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -2060,32 +2105,35 @@
       <c r="G17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>500089</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>8340809777</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -2107,32 +2155,35 @@
       <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>500033</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>8121024558</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="O18" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -2154,32 +2205,35 @@
       <c r="G19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>500079</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>9959538183</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="P19" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -2201,29 +2255,32 @@
       <c r="G20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>500096</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>9666666202</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="O20" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -2245,32 +2302,35 @@
       <c r="G21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>500032</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <v>9393335544</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -2292,29 +2352,32 @@
       <c r="G22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="7">
+      <c r="L22" s="7">
         <v>500033</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>9908124536</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -2336,32 +2399,35 @@
       <c r="G23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>500033</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>8977548418</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="P23" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -2383,32 +2449,35 @@
       <c r="G24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>500084</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>9730014332</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -2430,29 +2499,32 @@
       <c r="G25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>500082</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>8885100029</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -2474,32 +2546,35 @@
       <c r="G26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>500033</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>8374534432</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="O26" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -2521,29 +2596,32 @@
       <c r="G27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>500081</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>8886376766</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="O27" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -2565,32 +2643,35 @@
       <c r="G28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>500075</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>9553533443</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="O28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="P28" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -2612,29 +2693,32 @@
       <c r="G29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>500033</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>630992799</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="O29" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -2656,29 +2740,32 @@
       <c r="G30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>500032</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>9948458099</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="O30" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -2700,32 +2787,35 @@
       <c r="G31" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <v>505001</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <v>9538210099</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="O31" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="P31" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -2747,32 +2837,35 @@
       <c r="G32" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>500033</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>8008492020</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="O32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="P32" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -2794,50 +2887,54 @@
       <c r="G33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>500033</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>9346038224</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
-      <c r="L34" s="7" t="s">
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="M34" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>9866871786</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="P34" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>29</v>
       </c>
@@ -2859,64 +2956,68 @@
       <c r="G35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>500084</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>9705616296</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="O35" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7"/>
+      <c r="I36" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>500081</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N36" s="5">
         <v>9121009586</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="O36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>30</v>
       </c>
@@ -2938,32 +3039,35 @@
       <c r="G37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="5">
+      <c r="L37" s="5">
         <v>500075</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M37" s="5">
+      <c r="N37" s="5">
         <v>9703759696</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="O37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>31</v>
       </c>
@@ -2985,64 +3089,68 @@
       <c r="G38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I38" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>500881</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>9701012304</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="O38" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>502032</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M39" s="5">
+      <c r="N39" s="5">
         <v>9848624131</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="O39" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>32</v>
       </c>
@@ -3064,32 +3172,35 @@
       <c r="G40" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="H40" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="I40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <v>500075</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M40" s="5">
+      <c r="N40" s="5">
         <v>9542343434</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>33</v>
       </c>
@@ -3111,29 +3222,32 @@
       <c r="G41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>500034</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="N41" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="O41" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>34</v>
       </c>
@@ -3155,32 +3269,35 @@
       <c r="G42" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I42" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="5">
+      <c r="L42" s="5">
         <v>500075</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="M42" s="5">
+      <c r="N42" s="5">
         <v>9989288888</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="O42" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>35</v>
       </c>
@@ -3202,29 +3319,32 @@
       <c r="G43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H43" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>500033</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>9985244488</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -3246,32 +3366,35 @@
       <c r="G44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="H44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>500033</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M44" s="5">
+      <c r="N44" s="5">
         <v>9346212616</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="O44" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -3293,32 +3416,35 @@
       <c r="G45" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="H45" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="I45" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>500016</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>9000813399</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>38</v>
       </c>
@@ -3340,29 +3466,32 @@
       <c r="G46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="J46" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="K46" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="5">
+      <c r="L46" s="5">
         <v>560025</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M46" s="5">
+      <c r="N46" s="5">
         <v>9866107565</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="O46" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>39</v>
       </c>
@@ -3384,53 +3513,57 @@
       <c r="G47" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>500008</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="M47" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5">
         <v>8897131313</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
-      <c r="L48" s="7" t="s">
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="M48" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>9666966799</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="O48" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="P48" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>40</v>
       </c>
@@ -3452,32 +3585,35 @@
       <c r="G49" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="5">
+      <c r="L49" s="5">
         <v>500032</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M49" s="5">
+      <c r="N49" s="5">
         <v>9849981231</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="P49" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41</v>
       </c>
@@ -3499,29 +3635,32 @@
       <c r="G50" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H50" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>500016</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M50" s="5">
+      <c r="N50" s="5">
         <v>8297727979</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="O50" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>42</v>
       </c>
@@ -3543,103 +3682,109 @@
       <c r="G51" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>500081</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="M51" s="5">
+      <c r="N51" s="5">
         <v>9966233725</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="O51" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
-      <c r="L52" s="7" t="s">
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="M52" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <v>9701812395</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="O52" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="P52" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-      <c r="L53" s="7" t="s">
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+      <c r="M53" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M53" s="5">
+      <c r="N53" s="5">
         <v>9246568138</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="O53" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="P53" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="7"/>
+      <c r="I54" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="5">
+      <c r="L54" s="5">
         <v>500032</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M54" s="5">
+      <c r="N54" s="5">
         <v>7660005577</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="O54" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="P54" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43</v>
       </c>
@@ -3661,32 +3806,35 @@
       <c r="G55" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="5">
+      <c r="L55" s="5">
         <v>500077</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M55" s="5">
+      <c r="N55" s="5">
         <v>9490028438</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="O55" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="P55" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>44</v>
       </c>
@@ -3708,32 +3856,35 @@
       <c r="G56" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I56" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="5">
+      <c r="L56" s="5">
         <v>500003</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M56" s="5">
+      <c r="N56" s="5">
         <v>9396633333</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="O56" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="P56" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>45</v>
       </c>
@@ -3755,29 +3906,32 @@
       <c r="G57" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K57" s="5">
+      <c r="L57" s="5">
         <v>500034</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M57" s="5">
+      <c r="N57" s="5">
         <v>9246527085</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="O57" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>46</v>
       </c>
@@ -3799,32 +3953,35 @@
       <c r="G58" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I58" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>500034</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <v>9848024345</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="O58" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="P58" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>47</v>
       </c>
@@ -3846,26 +4003,29 @@
       <c r="G59" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>500004</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="O59" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>48</v>
       </c>
@@ -3887,53 +4047,57 @@
       <c r="G60" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I60" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>500075</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M60" s="5">
+      <c r="N60" s="5">
         <v>9959184888</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="O60" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="O60" s="5" t="s">
+      <c r="P60" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="6"/>
-      <c r="L61" s="7" t="s">
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="M61" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="M61" s="5">
+      <c r="N61" s="5">
         <v>9700609009</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="O61" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="P61" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>49</v>
       </c>
@@ -3955,29 +4119,32 @@
       <c r="G62" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L62" s="7">
         <v>500072</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M62" s="5">
+      <c r="N62" s="5">
         <v>91777022</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="O62" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>50</v>
       </c>
@@ -3999,29 +4166,32 @@
       <c r="G63" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K63" s="5">
+      <c r="L63" s="5">
         <v>500034</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="M63" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M63" s="5">
+      <c r="N63" s="5">
         <v>9000705333</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="O63" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -4043,29 +4213,32 @@
       <c r="G64" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="5">
+      <c r="L64" s="5">
         <v>500081</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="M64" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="M64" s="5">
+      <c r="N64" s="5">
         <v>9849148886</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="O64" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -4087,32 +4260,35 @@
       <c r="G65" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K65" s="5">
+      <c r="L65" s="5">
         <v>500032</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="M65" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M65" s="5">
+      <c r="N65" s="5">
         <v>9347068559</v>
       </c>
-      <c r="N65" s="7" t="s">
+      <c r="O65" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="P65" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -4134,32 +4310,35 @@
       <c r="G66" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="5">
+      <c r="L66" s="5">
         <v>500032</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="M66" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M66" s="5">
+      <c r="N66" s="5">
         <v>9701777621</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="O66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="P66" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -4181,29 +4360,32 @@
       <c r="G67" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I67" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K67" s="5">
+      <c r="L67" s="5">
         <v>500032</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="M67" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M67" s="5">
+      <c r="N67" s="5">
         <v>7382129982</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="O67" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -4225,32 +4407,35 @@
       <c r="G68" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I68" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I68" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="5">
+      <c r="L68" s="5">
         <v>500081</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="M68" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M68" s="5">
+      <c r="N68" s="5">
         <v>9989538147</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="O68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="P68" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -4272,29 +4457,32 @@
       <c r="G69" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I69" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K69" s="5">
+      <c r="L69" s="5">
         <v>500072</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="M69" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M69" s="5">
+      <c r="N69" s="5">
         <v>9848881299</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="O69" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -4316,32 +4504,35 @@
       <c r="G70" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>500081</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="M70" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M70" s="5">
+      <c r="N70" s="5">
         <v>9949412345</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="O70" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="P70" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -4363,44 +4554,48 @@
       <c r="G71" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I71" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="5">
+      <c r="L71" s="5">
         <v>500034</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="M71" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="O71" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
-      <c r="L72" s="7" t="s">
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
+      <c r="M72" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="M72" s="5">
+      <c r="N72" s="5">
         <v>9121094131</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="O72" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>71</v>
       </c>
@@ -4422,32 +4617,35 @@
       <c r="G73" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K73" s="5">
+      <c r="L73" s="5">
         <v>500034</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="M73" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M73" s="5">
+      <c r="N73" s="5">
         <v>9243458008</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="O73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="P73" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>72</v>
       </c>
@@ -4469,32 +4667,35 @@
       <c r="G74" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K74" s="5">
+      <c r="L74" s="5">
         <v>500034</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="M74" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M74" s="5">
+      <c r="N74" s="5">
         <v>9959615871</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="O74" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="O74" s="5" t="s">
+      <c r="P74" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>73</v>
       </c>
@@ -4516,29 +4717,32 @@
       <c r="G75" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="J75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="5" t="s">
+      <c r="K75" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K75" s="5">
+      <c r="L75" s="5">
         <v>520001</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="M75" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="N75" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="O75" s="7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>74</v>
       </c>
@@ -4560,32 +4764,35 @@
       <c r="G76" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K76" s="5">
+      <c r="L76" s="5">
         <v>500081</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="M76" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="M76" s="5">
+      <c r="N76" s="5">
         <v>9885599884</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="O76" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="P76" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>75</v>
       </c>
@@ -4607,25 +4814,28 @@
       <c r="G77" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I77" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="J77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K77" s="5">
+      <c r="L77" s="5">
         <v>500075</v>
       </c>
-      <c r="L77" s="7" t="s">
+      <c r="M77" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M77" s="5">
+      <c r="N77" s="5">
         <v>9866557027</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="O77" s="7" t="s">
         <v>37</v>
       </c>
     </row>
